--- a/www/IndicatorsPerCountry/SriLanka_MalelifeExpectancyatBirth_TerritorialRef_1948_2012_CCode_144.xlsx
+++ b/www/IndicatorsPerCountry/SriLanka_MalelifeExpectancyatBirth_TerritorialRef_1948_2012_CCode_144.xlsx
@@ -81,13 +81,13 @@
     <t>Ribeiro da Silva, Filipa (2015). Male life Expectancy at Birth. http://hdl.handle.net/10622/K879JA, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_K879JA.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_K879JA.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_K879JA.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_K879JA.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_K879JA.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_K879JA.bib</t>
   </si>
 </sst>
 </file>
